--- a/Python_Syllabus.xlsx
+++ b/Python_Syllabus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Python_Basics" sheetId="1" r:id="rId1"/>
@@ -101,83 +101,84 @@
     Json</t>
   </si>
   <si>
+    <t>Exception Handling in Python
+    Try, Except, else, finally, raise, assert
+    User Defined Exceptions</t>
+  </si>
+  <si>
+    <t>Regular Expressions
+    Wild Cards 
+    Important Functions of re</t>
+  </si>
+  <si>
+    <t>Database Interaction with Python
+    sqlite3
+    Mysql</t>
+  </si>
+  <si>
+    <t>Test Framework (Pytest)
+    Write a unit testcases with python</t>
+  </si>
+  <si>
+    <t>Multithreading in Python</t>
+  </si>
+  <si>
+    <t>Logging in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask Introduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask App </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask Routing </t>
+  </si>
+  <si>
+    <t>Flask-SQLAlchemy</t>
+  </si>
+  <si>
+    <t>Flask jinja2 template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django Introduction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating project in Django </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django URLs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django Forms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django Models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django Template </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django Admin Interface </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django CRUD Operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">API in Django (Django REST Framework) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">API in flask(requests module) </t>
+  </si>
+  <si>
+    <t>Flask CRUD operation</t>
+  </si>
+  <si>
     <t>Generators
 Iterators
 Decorators
-Closures</t>
-  </si>
-  <si>
-    <t>Exception Handling in Python
-    Try, Except, else, finally, raise, assert
-    User Defined Exceptions</t>
-  </si>
-  <si>
-    <t>Regular Expressions
-    Wild Cards 
-    Important Functions of re</t>
-  </si>
-  <si>
-    <t>Database Interaction with Python
-    sqlite3
-    Mysql</t>
-  </si>
-  <si>
-    <t>Test Framework (Pytest)
-    Write a unit testcases with python</t>
-  </si>
-  <si>
-    <t>Multithreading in Python</t>
-  </si>
-  <si>
-    <t>Logging in Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask Introduction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask App </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask Routing </t>
-  </si>
-  <si>
-    <t>Flask-SQLAlchemy</t>
-  </si>
-  <si>
-    <t>Flask jinja2 template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django Introduction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating project in Django </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django URLs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django Forms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django Models </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django Template </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django Admin Interface </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django CRUD Operations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">API in Django (Django REST Framework) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">API in flask(requests module) </t>
-  </si>
-  <si>
-    <t>Flask CRUD operation</t>
+Closures
+Property</t>
   </si>
 </sst>
 </file>
@@ -536,7 +537,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,12 +655,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60">
+    <row r="2" spans="1:2" ht="75">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="135">
@@ -683,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
@@ -691,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45">
@@ -699,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
@@ -707,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -715,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -723,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -752,37 +753,37 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -810,47 +811,47 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
